--- a/09_Driver/05 驱动通信.xlsx
+++ b/09_Driver/05 驱动通信.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F442EEA-3A51-478F-B96B-F68BA49F66D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE4B7D-D329-4F1C-933E-4BBE2AD94E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kd&gt; dt _device_object</t>
-  </si>
-  <si>
     <t>ntdll!_DEVICE_OBJECT</t>
   </si>
   <si>
@@ -76,15 +73,6 @@
     <t xml:space="preserve">   +0x004 ReferenceCount   : Int4B</t>
   </si>
   <si>
-    <t xml:space="preserve">   +0x008 DriverObject     : Ptr32 _DRIVER_OBJECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x00c NextDevice       : Ptr32 _DEVICE_OBJECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x010 AttachedDevice   : Ptr32 _DEVICE_OBJECT</t>
-  </si>
-  <si>
     <t xml:space="preserve">   +0x014 CurrentIrp       : Ptr32 _IRP</t>
   </si>
   <si>
@@ -149,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">   +0x002 Size             : Int2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x004 DeviceObject     : Ptr32 _DEVICE_OBJECT</t>
   </si>
   <si>
     <t xml:space="preserve">   +0x008 Flags            : Uint4B</t>
@@ -263,6 +248,22 @@
   </si>
   <si>
     <t>2、IRP包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd&gt; dt _PDEVICE_OBJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x00c NextDevice       : Ptr32 _PDEVICE_OBJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x010 AttachedDevice   : Ptr32 _PDEVICE_OBJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x004 DeviceObject     : Ptr32 _PDEVICE_OBJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x008 DriverObject     : Ptr32 _PDRIVER_OBJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +469,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7114320" cy="25116619"/>
+    <xdr:ext cx="7114320" cy="25438887"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2">
@@ -483,7 +484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="396240"/>
-          <a:ext cx="7114320" cy="25116619"/>
+          <a:ext cx="7114320" cy="25438887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1587,6 +1588,69 @@
             </a:rPr>
             <a:t>pDevice-&gt;Flags |= DO_BUFFERED_IO;</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pDevice-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;Flags &amp;= DO_DEVICE_INITIALIZING;// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>去掉设备初始化</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -3925,22 +3989,22 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3960,197 +4024,199 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5"/>
       <c r="K8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5"/>
       <c r="K9" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5"/>
       <c r="K10" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K21" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4164,7 +4230,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="P80" sqref="P80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4187,117 +4255,117 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
